--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
     <t>Ccr2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.847985951666361</v>
+        <v>0.857148</v>
       </c>
       <c r="H2">
-        <v>0.847985951666361</v>
+        <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J2">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0933634140901743</v>
+        <v>0.01636166666666667</v>
       </c>
       <c r="N2">
-        <v>0.0933634140901743</v>
+        <v>0.049085</v>
       </c>
       <c r="O2">
-        <v>0.002321511514798198</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="P2">
-        <v>0.002321511514798198</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="Q2">
-        <v>0.07917086354807699</v>
+        <v>0.01402436986</v>
       </c>
       <c r="R2">
-        <v>0.07917086354807699</v>
+        <v>0.12621932874</v>
       </c>
       <c r="S2">
-        <v>0.0001200265324198535</v>
+        <v>1.531887205263429E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001200265324198535</v>
+        <v>1.53188720526343E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.847985951666361</v>
+        <v>0.857148</v>
       </c>
       <c r="H3">
-        <v>0.847985951666361</v>
+        <v>2.571444</v>
       </c>
       <c r="I3">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J3">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.9410353258467</v>
+        <v>0.116965</v>
       </c>
       <c r="N3">
-        <v>39.9410353258467</v>
+        <v>0.350895</v>
       </c>
       <c r="O3">
-        <v>0.9931467730213722</v>
+        <v>0.002287517243409221</v>
       </c>
       <c r="P3">
-        <v>0.9931467730213722</v>
+        <v>0.002287517243409221</v>
       </c>
       <c r="Q3">
-        <v>33.86943685132785</v>
+        <v>0.10025631582</v>
       </c>
       <c r="R3">
-        <v>33.86943685132785</v>
+        <v>0.9023068423799999</v>
       </c>
       <c r="S3">
-        <v>0.05134756497646947</v>
+        <v>0.0001095103516126945</v>
       </c>
       <c r="T3">
-        <v>0.05134756497646947</v>
+        <v>0.0001095103516126945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.847985951666361</v>
+        <v>0.857148</v>
       </c>
       <c r="H4">
-        <v>0.847985951666361</v>
+        <v>2.571444</v>
       </c>
       <c r="I4">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J4">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182250410860071</v>
+        <v>50.32711433333333</v>
       </c>
       <c r="N4">
-        <v>0.182250410860071</v>
+        <v>150.981343</v>
       </c>
       <c r="O4">
-        <v>0.004531715463829473</v>
+        <v>0.984261461535736</v>
       </c>
       <c r="P4">
-        <v>0.004531715463829473</v>
+        <v>0.9842614615357361</v>
       </c>
       <c r="Q4">
-        <v>0.1545457880947626</v>
+        <v>43.137785396588</v>
       </c>
       <c r="R4">
-        <v>0.1545457880947626</v>
+        <v>388.240068569292</v>
       </c>
       <c r="S4">
-        <v>0.0002342982533447228</v>
+        <v>0.04711956556487506</v>
       </c>
       <c r="T4">
-        <v>0.0002342982533447228</v>
+        <v>0.04711956556487507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.5534638902266</v>
+        <v>0.857148</v>
       </c>
       <c r="H5">
-        <v>15.5534638902266</v>
+        <v>2.571444</v>
       </c>
       <c r="I5">
-        <v>0.9482981102377659</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J5">
-        <v>0.9482981102377659</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0933634140901743</v>
+        <v>0.671414</v>
       </c>
       <c r="N5">
-        <v>0.0933634140901743</v>
+        <v>2.014242</v>
       </c>
       <c r="O5">
-        <v>0.002321511514798198</v>
+        <v>0.01313103152623741</v>
       </c>
       <c r="P5">
-        <v>0.002321511514798198</v>
+        <v>0.01313103152623741</v>
       </c>
       <c r="Q5">
-        <v>1.452124489719799</v>
+        <v>0.575501167272</v>
       </c>
       <c r="R5">
-        <v>1.452124489719799</v>
+        <v>5.179510505448</v>
       </c>
       <c r="S5">
-        <v>0.002201484982378345</v>
+        <v>0.000628622093939945</v>
       </c>
       <c r="T5">
-        <v>0.002201484982378345</v>
+        <v>0.0006286220939399451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.5534638902266</v>
+        <v>15.94278666666667</v>
       </c>
       <c r="H6">
-        <v>15.5534638902266</v>
+        <v>47.82836</v>
       </c>
       <c r="I6">
-        <v>0.9482981102377659</v>
+        <v>0.8904288352152905</v>
       </c>
       <c r="J6">
-        <v>0.9482981102377659</v>
+        <v>0.8904288352152906</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>39.9410353258467</v>
+        <v>0.01636166666666667</v>
       </c>
       <c r="N6">
-        <v>39.9410353258467</v>
+        <v>0.049085</v>
       </c>
       <c r="O6">
-        <v>0.9931467730213722</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="P6">
-        <v>0.9931467730213722</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="Q6">
-        <v>621.2214506788217</v>
+        <v>0.2608505611777778</v>
       </c>
       <c r="R6">
-        <v>621.2214506788217</v>
+        <v>2.3476550506</v>
       </c>
       <c r="S6">
-        <v>0.9417992080449027</v>
+        <v>0.0002849280510589894</v>
       </c>
       <c r="T6">
-        <v>0.9417992080449027</v>
+        <v>0.0002849280510589894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H7">
+        <v>47.82836</v>
+      </c>
+      <c r="I7">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J7">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.116965</v>
+      </c>
+      <c r="N7">
+        <v>0.350895</v>
+      </c>
+      <c r="O7">
+        <v>0.002287517243409221</v>
+      </c>
+      <c r="P7">
+        <v>0.002287517243409221</v>
+      </c>
+      <c r="Q7">
+        <v>1.864748042466667</v>
+      </c>
+      <c r="R7">
+        <v>16.7827323822</v>
+      </c>
+      <c r="S7">
+        <v>0.002036871314583765</v>
+      </c>
+      <c r="T7">
+        <v>0.002036871314583765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H8">
+        <v>47.82836</v>
+      </c>
+      <c r="I8">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J8">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>50.32711433333333</v>
+      </c>
+      <c r="N8">
+        <v>150.981343</v>
+      </c>
+      <c r="O8">
+        <v>0.984261461535736</v>
+      </c>
+      <c r="P8">
+        <v>0.9842614615357361</v>
+      </c>
+      <c r="Q8">
+        <v>802.3544473652756</v>
+      </c>
+      <c r="R8">
+        <v>7221.190026287481</v>
+      </c>
+      <c r="S8">
+        <v>0.8764147867425649</v>
+      </c>
+      <c r="T8">
+        <v>0.876414786742565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H9">
+        <v>47.82836</v>
+      </c>
+      <c r="I9">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J9">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.671414</v>
+      </c>
+      <c r="N9">
+        <v>2.014242</v>
+      </c>
+      <c r="O9">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="P9">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="Q9">
+        <v>10.70421016701333</v>
+      </c>
+      <c r="R9">
+        <v>96.33789150312001</v>
+      </c>
+      <c r="S9">
+        <v>0.01169224910708283</v>
+      </c>
+      <c r="T9">
+        <v>0.01169224910708284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>15.5534638902266</v>
-      </c>
-      <c r="H7">
-        <v>15.5534638902266</v>
-      </c>
-      <c r="I7">
-        <v>0.9482981102377659</v>
-      </c>
-      <c r="J7">
-        <v>0.9482981102377659</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.182250410860071</v>
-      </c>
-      <c r="N7">
-        <v>0.182250410860071</v>
-      </c>
-      <c r="O7">
-        <v>0.004531715463829473</v>
-      </c>
-      <c r="P7">
-        <v>0.004531715463829473</v>
-      </c>
-      <c r="Q7">
-        <v>2.834625184291076</v>
-      </c>
-      <c r="R7">
-        <v>2.834625184291076</v>
-      </c>
-      <c r="S7">
-        <v>0.004297417210484751</v>
-      </c>
-      <c r="T7">
-        <v>0.004297417210484751</v>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.314045</v>
+      </c>
+      <c r="I10">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J10">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01636166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.049085</v>
+      </c>
+      <c r="O10">
+        <v>0.0003199896946173118</v>
+      </c>
+      <c r="P10">
+        <v>0.0003199896946173118</v>
+      </c>
+      <c r="Q10">
+        <v>0.01807443320277778</v>
+      </c>
+      <c r="R10">
+        <v>0.162669898825</v>
+      </c>
+      <c r="S10">
+        <v>1.974277150568802E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.974277150568802E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.314045</v>
+      </c>
+      <c r="I11">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J11">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.116965</v>
+      </c>
+      <c r="N11">
+        <v>0.350895</v>
+      </c>
+      <c r="O11">
+        <v>0.002287517243409221</v>
+      </c>
+      <c r="P11">
+        <v>0.002287517243409221</v>
+      </c>
+      <c r="Q11">
+        <v>0.1292090911416667</v>
+      </c>
+      <c r="R11">
+        <v>1.162881820275</v>
+      </c>
+      <c r="S11">
+        <v>0.0001411355772127615</v>
+      </c>
+      <c r="T11">
+        <v>0.0001411355772127615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.314045</v>
+      </c>
+      <c r="I12">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J12">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>50.32711433333333</v>
+      </c>
+      <c r="N12">
+        <v>150.981343</v>
+      </c>
+      <c r="O12">
+        <v>0.984261461535736</v>
+      </c>
+      <c r="P12">
+        <v>0.9842614615357361</v>
+      </c>
+      <c r="Q12">
+        <v>55.59544054027056</v>
+      </c>
+      <c r="R12">
+        <v>500.3589648624351</v>
+      </c>
+      <c r="S12">
+        <v>0.060727109228296</v>
+      </c>
+      <c r="T12">
+        <v>0.06072710922829601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.314045</v>
+      </c>
+      <c r="I13">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J13">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.671414</v>
+      </c>
+      <c r="N13">
+        <v>2.014242</v>
+      </c>
+      <c r="O13">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="P13">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="Q13">
+        <v>0.7416987365433334</v>
+      </c>
+      <c r="R13">
+        <v>6.67528862889</v>
+      </c>
+      <c r="S13">
+        <v>0.0008101603252146285</v>
+      </c>
+      <c r="T13">
+        <v>0.0008101603252146285</v>
       </c>
     </row>
   </sheetData>
